--- a/フォーマット資料.xlsx
+++ b/フォーマット資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevGo\src\github.com\sei1rou\NwToShokuin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevGo\github.com\sei1rou\NwToShokuin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5284DA5-0CD3-4471-9F9D-FDAAA3FB076F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62A2F5-C192-4DB7-93D5-0A78F974406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="30" windowWidth="17835" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3270" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="488">
   <si>
     <t>※実施健診機関CD</t>
     <rPh sb="1" eb="3">
@@ -2168,6 +2168,80 @@
       <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乳Ｘ（ﾏﾝﾓ）所見（１）</t>
+  </si>
+  <si>
+    <t>乳Ｘ（ﾏﾝﾓ）所見（２）</t>
+  </si>
+  <si>
+    <t>乳Ｘ（ﾏﾝﾓ）所見（３）</t>
+  </si>
+  <si>
+    <t>随時中性脂肪</t>
+  </si>
+  <si>
+    <t>測定不可能・検査未実施の理由</t>
+  </si>
+  <si>
+    <t>骨密度DEXA法</t>
+  </si>
+  <si>
+    <t>マンモグラフィー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空腹時中性脂肪</t>
+    <rPh sb="0" eb="3">
+      <t>クウフクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>随時中性脂肪</t>
+    <rPh sb="0" eb="2">
+      <t>ズイジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実施の場合その理由</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指導受診歴</t>
+    <rPh sb="0" eb="2">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2217,7 +2291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2240,6 +2314,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2247,9 +2332,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2532,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0A27EC-E68E-4BA8-885A-4B062510C2DB}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -4139,10 +4224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC58FCF2-865D-4DC8-9815-84F5CF231903}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4173,22 +4258,22 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>11000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="2">
-        <v>11000</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>302500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>415201</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -4198,21 +4283,21 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E3" s="1">
-        <v>302500</v>
-      </c>
-      <c r="F3" s="1">
-        <v>415201</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -4222,19 +4307,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1">
-        <v>1000</v>
+        <v>43952</v>
       </c>
       <c r="F4" s="1"/>
       <c r="H4">
@@ -4246,19 +4331,17 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>43952</v>
+        <v>3025</v>
       </c>
       <c r="F5" s="1"/>
       <c r="H5">
@@ -4270,17 +4353,15 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>3025</v>
+        <v>999</v>
       </c>
       <c r="F6" s="1"/>
       <c r="H6">
@@ -4292,15 +4373,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E7" s="1">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
       <c r="H7">
@@ -4312,20 +4397,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8">
         <v>6</v>
@@ -4335,18 +4416,18 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="H9">
         <v>7</v>
       </c>
@@ -4355,18 +4436,18 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10">
         <v>8</v>
       </c>
@@ -4375,18 +4456,22 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="H11">
         <v>9</v>
       </c>
@@ -4396,19 +4481,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="H12">
@@ -4420,19 +4505,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>26520</v>
       </c>
       <c r="F13" s="1"/>
       <c r="H13">
@@ -4444,20 +4529,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="1">
-        <v>26520</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14">
         <v>12</v>
@@ -4468,10 +4549,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>103</v>
@@ -4488,10 +4569,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>103</v>
@@ -4508,10 +4589,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>103</v>
@@ -4528,10 +4609,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>103</v>
@@ -4548,10 +4629,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>103</v>
@@ -4568,10 +4649,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>103</v>
@@ -4588,10 +4669,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>103</v>
@@ -4608,10 +4689,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>103</v>
@@ -4628,10 +4709,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>103</v>
@@ -4648,10 +4729,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>103</v>
@@ -4668,16 +4749,20 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="H25">
         <v>23</v>
@@ -4688,13 +4773,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>131</v>
@@ -4712,20 +4797,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="1">
-        <v>7300</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27">
         <v>25</v>
@@ -4736,16 +4817,20 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="C28" s="1">
+        <v>7300</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="H28">
         <v>26</v>
@@ -4756,19 +4841,17 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7300</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>302500</v>
       </c>
       <c r="F29" s="1"/>
       <c r="H29">
@@ -4780,17 +4863,17 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>302500</v>
+        <v>152.1</v>
       </c>
       <c r="F30" s="1"/>
       <c r="H30">
@@ -4802,17 +4885,17 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>152.1</v>
+        <v>47.6</v>
       </c>
       <c r="F31" s="1"/>
       <c r="H31">
@@ -4824,17 +4907,15 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
-        <v>47.6</v>
+        <v>20.6</v>
       </c>
       <c r="F32" s="1"/>
       <c r="H32">
@@ -4846,15 +4927,17 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
-        <v>20.6</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1"/>
       <c r="H33">
@@ -4866,17 +4949,19 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E34" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34">
@@ -4888,19 +4973,17 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35">
@@ -4912,17 +4995,17 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36">
@@ -4934,17 +5017,17 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>484</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37">
@@ -4956,19 +5039,14 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1">
-        <v>58</v>
-      </c>
-      <c r="F38" s="1"/>
       <c r="H38">
         <v>36</v>
       </c>
@@ -4978,7 +5056,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>18</v>
@@ -5000,7 +5078,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>19</v>
@@ -5022,7 +5100,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>20</v>
@@ -5042,7 +5120,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
@@ -5064,7 +5142,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>22</v>
@@ -5086,7 +5164,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>23</v>
@@ -5108,13 +5186,13 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
+      <c r="C45" s="1">
+        <v>4</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">
@@ -5130,7 +5208,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>25</v>
@@ -5141,16 +5219,16 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>44</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>26</v>
@@ -5161,16 +5239,16 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>45</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>27</v>
@@ -5183,16 +5261,16 @@
         <v>2</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="H48" s="4">
+      <c r="H48" s="3">
         <v>46</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>28</v>
@@ -5205,16 +5283,16 @@
         <v>145</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="H49" s="4">
+      <c r="H49" s="3">
         <v>47</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>29</v>
@@ -5227,133 +5305,123 @@
         <v>135</v>
       </c>
       <c r="F50" s="1"/>
-      <c r="H50" s="4">
+      <c r="H50" s="3">
         <v>48</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="1">
-        <v>5900</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="H51" s="4">
         <v>49</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H51" s="3">
+        <v>49</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E52" s="1">
-        <v>463</v>
+        <v>5900</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>50</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>51</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1">
-        <v>27.9</v>
+        <v>7</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>52</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>27.9</v>
       </c>
       <c r="F55" s="1"/>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>53</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>118</v>
@@ -5365,279 +5433,279 @@
         <v>1</v>
       </c>
       <c r="F56" s="1"/>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>54</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E57" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>55</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>1.01</v>
+      </c>
       <c r="F58" s="1"/>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <v>56</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="4">
+      <c r="H59" s="3">
         <v>57</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F60" s="1"/>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>58</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>59</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="3" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>60</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E63" s="1">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1"/>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>61</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="F64" s="1"/>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>62</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
       </c>
       <c r="F65" s="1"/>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>63</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F66" s="1"/>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>64</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="F67" s="1"/>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>65</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="H68">
         <v>66</v>
@@ -5648,17 +5716,19 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F69" s="1"/>
       <c r="H69">
@@ -5670,19 +5740,17 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F70" s="1"/>
       <c r="H70">
@@ -5694,19 +5762,19 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
       </c>
       <c r="F71" s="1"/>
       <c r="H71">
@@ -5718,19 +5786,19 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E72" s="1">
-        <v>2</v>
+        <v>137</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F72" s="1"/>
       <c r="H72">
@@ -5742,18 +5810,20 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="H73">
         <v>71</v>
@@ -5764,20 +5834,18 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74">
         <v>72</v>
@@ -5788,18 +5856,20 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="H75">
         <v>73</v>
@@ -5810,15 +5880,17 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="H76">
@@ -5830,18 +5902,16 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="H77">
         <v>75</v>
@@ -5852,17 +5922,17 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1"/>
       <c r="H78">
@@ -5874,10 +5944,10 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -5896,10 +5966,10 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
@@ -5918,17 +5988,17 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" s="1"/>
       <c r="H81">
@@ -5940,17 +6010,17 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="1"/>
       <c r="H82">
@@ -5962,10 +6032,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -5984,10 +6054,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -6006,17 +6076,17 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="1"/>
       <c r="H85">
@@ -6028,10 +6098,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -6050,17 +6120,17 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="1"/>
       <c r="H87">
@@ -6072,10 +6142,10 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
@@ -6094,17 +6164,17 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1"/>
       <c r="H89">
@@ -6116,10 +6186,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
@@ -6138,17 +6208,17 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" s="1"/>
       <c r="H91">
@@ -6160,14 +6230,14 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E92" s="1">
         <v>2</v>
@@ -6182,14 +6252,14 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E93" s="1">
         <v>2</v>
@@ -6204,14 +6274,14 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E94" s="1">
         <v>2</v>
@@ -6226,14 +6296,14 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -6248,17 +6318,17 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="1"/>
       <c r="H96">
@@ -6270,17 +6340,17 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1"/>
       <c r="H97">
@@ -6292,32 +6362,46 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F98" s="1"/>
       <c r="H98">
         <v>96</v>
       </c>
       <c r="I98" t="s">
-        <v>225</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1"/>
       <c r="H99">
         <v>97</v>
       </c>
       <c r="I99" t="s">
-        <v>225</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6325,7 +6409,7 @@
         <v>98</v>
       </c>
       <c r="I100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6333,7 +6417,7 @@
         <v>99</v>
       </c>
       <c r="I101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6341,7 +6425,7 @@
         <v>100</v>
       </c>
       <c r="I102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6357,7 +6441,7 @@
         <v>102</v>
       </c>
       <c r="I104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6365,7 +6449,7 @@
         <v>103</v>
       </c>
       <c r="I105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6381,7 +6465,7 @@
         <v>105</v>
       </c>
       <c r="I107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6389,7 +6473,7 @@
         <v>106</v>
       </c>
       <c r="I108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6405,7 +6489,7 @@
         <v>108</v>
       </c>
       <c r="I110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6413,7 +6497,7 @@
         <v>109</v>
       </c>
       <c r="I111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6429,7 +6513,7 @@
         <v>111</v>
       </c>
       <c r="I113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="8:9">
@@ -6437,7 +6521,7 @@
         <v>112</v>
       </c>
       <c r="I114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="8:9">
@@ -6453,7 +6537,7 @@
         <v>114</v>
       </c>
       <c r="I116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="8:9">
@@ -6461,7 +6545,7 @@
         <v>115</v>
       </c>
       <c r="I117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="8:9">
@@ -6477,7 +6561,7 @@
         <v>117</v>
       </c>
       <c r="I119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="8:9">
@@ -6485,7 +6569,7 @@
         <v>118</v>
       </c>
       <c r="I120" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="8:9">
@@ -6501,7 +6585,7 @@
         <v>120</v>
       </c>
       <c r="I122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="8:9">
@@ -6509,7 +6593,7 @@
         <v>121</v>
       </c>
       <c r="I123" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="8:9">
@@ -6525,7 +6609,7 @@
         <v>123</v>
       </c>
       <c r="I125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="8:9">
@@ -6533,7 +6617,7 @@
         <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="8:9">
@@ -6549,7 +6633,7 @@
         <v>126</v>
       </c>
       <c r="I128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="129" spans="8:9">
@@ -6557,7 +6641,7 @@
         <v>127</v>
       </c>
       <c r="I129" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="8:9">
@@ -6573,7 +6657,7 @@
         <v>129</v>
       </c>
       <c r="I131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="8:9">
@@ -6581,7 +6665,7 @@
         <v>130</v>
       </c>
       <c r="I132" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="8:9">
@@ -6589,7 +6673,7 @@
         <v>131</v>
       </c>
       <c r="I133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="8:9">
@@ -6597,7 +6681,7 @@
         <v>132</v>
       </c>
       <c r="I134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="8:9">
@@ -6605,7 +6689,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="8:9">
@@ -6613,7 +6697,7 @@
         <v>134</v>
       </c>
       <c r="I136" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="8:9">
@@ -6621,7 +6705,7 @@
         <v>135</v>
       </c>
       <c r="I137" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="8:9">
@@ -6629,7 +6713,7 @@
         <v>136</v>
       </c>
       <c r="I138" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="8:9">
@@ -6637,7 +6721,7 @@
         <v>137</v>
       </c>
       <c r="I139" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="8:9">
@@ -6645,7 +6729,7 @@
         <v>138</v>
       </c>
       <c r="I140" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="8:9">
@@ -6653,7 +6737,7 @@
         <v>139</v>
       </c>
       <c r="I141" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="8:9">
@@ -6661,7 +6745,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="8:9">
@@ -6669,7 +6753,7 @@
         <v>141</v>
       </c>
       <c r="I143" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="8:9">
@@ -6677,7 +6761,7 @@
         <v>142</v>
       </c>
       <c r="I144" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="8:9">
@@ -6685,7 +6769,7 @@
         <v>143</v>
       </c>
       <c r="I145" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="8:9">
@@ -6693,7 +6777,7 @@
         <v>144</v>
       </c>
       <c r="I146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="8:9">
@@ -6701,7 +6785,7 @@
         <v>145</v>
       </c>
       <c r="I147" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="8:9">
@@ -6709,7 +6793,7 @@
         <v>146</v>
       </c>
       <c r="I148" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="149" spans="8:9">
@@ -6717,7 +6801,7 @@
         <v>147</v>
       </c>
       <c r="I149" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="8:9">
@@ -6725,7 +6809,7 @@
         <v>148</v>
       </c>
       <c r="I150" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="8:9">
@@ -6733,7 +6817,7 @@
         <v>149</v>
       </c>
       <c r="I151" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="8:9">
@@ -6741,7 +6825,7 @@
         <v>150</v>
       </c>
       <c r="I152" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="8:9">
@@ -6749,7 +6833,7 @@
         <v>151</v>
       </c>
       <c r="I153" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="8:9">
@@ -6757,7 +6841,7 @@
         <v>152</v>
       </c>
       <c r="I154" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="8:9">
@@ -6765,7 +6849,7 @@
         <v>153</v>
       </c>
       <c r="I155" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="8:9">
@@ -6773,7 +6857,7 @@
         <v>154</v>
       </c>
       <c r="I156" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157" spans="8:9">
@@ -6781,7 +6865,7 @@
         <v>155</v>
       </c>
       <c r="I157" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="158" spans="8:9">
@@ -6789,7 +6873,7 @@
         <v>156</v>
       </c>
       <c r="I158" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="8:9">
@@ -6797,7 +6881,7 @@
         <v>157</v>
       </c>
       <c r="I159" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="8:9">
@@ -6805,7 +6889,7 @@
         <v>158</v>
       </c>
       <c r="I160" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="8:9">
@@ -6813,7 +6897,7 @@
         <v>159</v>
       </c>
       <c r="I161" t="s">
-        <v>462</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="8:9">
@@ -6821,7 +6905,7 @@
         <v>160</v>
       </c>
       <c r="I162" t="s">
-        <v>463</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="8:9">
@@ -6829,7 +6913,7 @@
         <v>161</v>
       </c>
       <c r="I163" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="164" spans="8:9">
@@ -6837,7 +6921,7 @@
         <v>162</v>
       </c>
       <c r="I164" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="165" spans="8:9">
@@ -6845,7 +6929,7 @@
         <v>163</v>
       </c>
       <c r="I165" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="8:9">
@@ -6853,7 +6937,7 @@
         <v>164</v>
       </c>
       <c r="I166" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="167" spans="8:9">
@@ -6861,7 +6945,7 @@
         <v>165</v>
       </c>
       <c r="I167" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="8:9">
@@ -6869,7 +6953,7 @@
         <v>166</v>
       </c>
       <c r="I168" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="8:9">
@@ -6877,7 +6961,7 @@
         <v>167</v>
       </c>
       <c r="I169" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="8:9">
@@ -6885,7 +6969,7 @@
         <v>168</v>
       </c>
       <c r="I170" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="8:9">
@@ -6893,7 +6977,7 @@
         <v>169</v>
       </c>
       <c r="I171" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="172" spans="8:9">
@@ -6901,7 +6985,7 @@
         <v>170</v>
       </c>
       <c r="I172" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="8:9">
@@ -6909,7 +6993,7 @@
         <v>171</v>
       </c>
       <c r="I173" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="8:9">
@@ -6917,7 +7001,7 @@
         <v>172</v>
       </c>
       <c r="I174" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="8:9">
@@ -6925,7 +7009,71 @@
         <v>173</v>
       </c>
       <c r="I175" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="8:9">
+      <c r="H176">
+        <v>174</v>
+      </c>
+      <c r="I176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="8:9">
+      <c r="H177">
+        <v>175</v>
+      </c>
+      <c r="I177" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="8:9">
+      <c r="H178">
+        <v>176</v>
+      </c>
+      <c r="I178" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="8:9">
+      <c r="H179">
+        <v>177</v>
+      </c>
+      <c r="I179" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="8:9">
+      <c r="H180">
+        <v>178</v>
+      </c>
+      <c r="I180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="8:9">
+      <c r="H181">
+        <v>179</v>
+      </c>
+      <c r="I181" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="8:9">
+      <c r="H182">
+        <v>180</v>
+      </c>
+      <c r="I182" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="183" spans="8:9">
+      <c r="H183">
+        <v>181</v>
+      </c>
+      <c r="I183" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
